--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Petros</t>
+  </si>
+  <si>
+    <t>End of Day</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1524,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1710,6 +1713,9 @@
     <row r="7" spans="1:19">
       <c r="A7" s="22" t="s">
         <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30">

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -128,18 +128,9 @@
     <t>Record Actual Hours</t>
   </si>
   <si>
-    <t>Review, Release, Version Control Check Lists</t>
-  </si>
-  <si>
-    <t>Task List Format</t>
-  </si>
-  <si>
     <t>Work Day Enumeration</t>
   </si>
   <si>
-    <t>Phase vs Guidence Level</t>
-  </si>
-  <si>
     <t>Project Scoping</t>
   </si>
   <si>
@@ -159,6 +150,27 @@
   </si>
   <si>
     <t>End of Day</t>
+  </si>
+  <si>
+    <t>Release Check List</t>
+  </si>
+  <si>
+    <t>Version Control Check List</t>
+  </si>
+  <si>
+    <t>Error Mitigation Stratagy</t>
+  </si>
+  <si>
+    <t>Task List Template</t>
+  </si>
+  <si>
+    <t>Responsibility Guidelines</t>
+  </si>
+  <si>
+    <t>Review Check List</t>
+  </si>
+  <si>
+    <t>Conflict Guidelines</t>
   </si>
 </sst>
 </file>
@@ -670,13 +682,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1437,7 +1449,7 @@
       </c>
       <c r="D1" s="16"/>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
@@ -1445,11 +1457,11 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
@@ -1457,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16">
@@ -1490,8 +1502,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16">
-      <c r="A6" s="23" t="s">
-        <v>42</v>
+      <c r="A6" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1503,12 +1515,12 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1525,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1555,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" t="s">
@@ -1567,7 +1579,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" t="s">
@@ -1711,36 +1723,56 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30">
-      <c r="A8" s="22" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="22" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" t="s">
@@ -1799,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" t="s">

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -280,8 +280,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="345">
+  <cellStyleXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -690,7 +692,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="345">
+  <cellStyles count="347">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -863,6 +865,7 @@
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1035,6 +1038,7 @@
     <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1435,7 +1439,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1505,7 +1509,9 @@
       <c r="A6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -1539,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1790,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1981,12 +1987,18 @@
         <v>33</v>
       </c>
       <c r="C7" s="10"/>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="10"/>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="C9" s="10"/>
@@ -1996,22 +2008,34 @@
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11"/>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="11"/>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19">

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Conflict Guidelines</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="347">
+  <cellStyleXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -628,8 +631,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,8 +702,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="347">
+  <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -866,6 +878,10 @@
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1039,6 +1055,10 @@
     <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1436,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1447,28 +1467,28 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1484,50 +1504,68 @@
         <v>43003</v>
       </c>
       <c r="C5" s="13">
+        <v>43006</v>
+      </c>
+      <c r="D5" s="13">
         <v>43010</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <v>43017</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>43024</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>43031</v>
       </c>
-      <c r="G5" s="13">
+      <c r="H5" s="13">
         <v>43038</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="13">
         <v>43045</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <v>43052</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="23" t="s">
         <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1584,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1732,7 +1770,7 @@
       <c r="A7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1796,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1987,7 +2025,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="E7" t="s">
+      <c r="E7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1996,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="E8" t="s">
+      <c r="E8" s="25" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>No Submission</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -283,7 +292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="355">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -639,8 +648,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,8 +720,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="355">
+  <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -882,6 +900,10 @@
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1059,6 +1081,10 @@
     <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1458,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1538,7 +1564,9 @@
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1556,6 +1584,9 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
+      <c r="D7" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18">
       <c r="A8" s="23" t="s">
@@ -1565,6 +1596,9 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1832,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1843,7 +1877,9 @@
     <col min="1" max="1" width="44.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
@@ -1853,9 +1889,9 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="26"/>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18">
@@ -1865,9 +1901,9 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18">
@@ -1877,161 +1913,158 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="D4" s="18"/>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="16">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:19" ht="18">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" t="str">
-        <f>TEXT(C6,"ddd")</f>
+      <c r="B6" s="7"/>
+      <c r="C6" t="str">
+        <f>TEXT(C7,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:S5" si="0">TEXT(D6,"ddd")</f>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:S6" si="0">TEXT(D7,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="S5" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="16">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C7" s="15">
         <v>42998</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>43001</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>43003</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>43010</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="15">
         <v>43012</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>43015</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>43017</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>43024</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <v>43026</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="13">
         <v>43029</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="13">
         <v>43031</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N7" s="13">
         <v>43038</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O7" s="15">
         <v>43040</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P7" s="13">
         <v>43043</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q7" s="13">
         <v>43045</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R7" s="13">
         <v>43052</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S7" s="15">
         <v>43055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="E7" s="25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10"/>
       <c r="E8" s="25" t="s">
@@ -2039,162 +2072,163 @@
       </c>
     </row>
     <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="10"/>
+      <c r="E9" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B31" s="5"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3">
       <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -38,18 +38,9 @@
     <t>Major Components BOM</t>
   </si>
   <si>
-    <t>Eagle Schematic</t>
-  </si>
-  <si>
-    <t>Eagle Layout</t>
-  </si>
-  <si>
     <t>Cable Definition (if cables are needed in your design)</t>
   </si>
   <si>
-    <t>Eagle Library</t>
-  </si>
-  <si>
     <t>Feature and Behavior Acceptance criteria</t>
   </si>
   <si>
@@ -86,24 +77,12 @@
     <t>Hardware Development Process</t>
   </si>
   <si>
-    <t>Actual Hours</t>
-  </si>
-  <si>
     <t>Extend Product Definition with Implementations</t>
   </si>
   <si>
-    <t>Make Updates Architecture</t>
-  </si>
-  <si>
     <t xml:space="preserve">Make Updates to Product Defintion </t>
   </si>
   <si>
-    <t>Go through Eagle Set Up</t>
-  </si>
-  <si>
-    <t>Read Through Tutorials</t>
-  </si>
-  <si>
     <t>Work Process Enumeration</t>
   </si>
   <si>
@@ -177,6 +156,18 @@
   </si>
   <si>
     <t>No Submission</t>
+  </si>
+  <si>
+    <t>Sub Fuctional Eagle Library</t>
+  </si>
+  <si>
+    <t>Sub Fuctional Eagle Schematic</t>
+  </si>
+  <si>
+    <t>Sub Fuctional Eagle Layout</t>
+  </si>
+  <si>
+    <t>Sub Fuctional Component Order</t>
   </si>
 </sst>
 </file>
@@ -292,8 +283,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,7 +735,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -721,8 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="413">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -904,6 +945,31 @@
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1085,6 +1151,31 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1494,32 +1585,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
-      <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="15"/>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="21" t="s">
-        <v>16</v>
+      <c r="A2" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="21" t="s">
-        <v>28</v>
+      <c r="A3" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16">
@@ -1555,17 +1646,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
+      <c r="A6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1575,31 +1666,31 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="18">
-      <c r="A7" s="23" t="s">
-        <v>29</v>
+      <c r="A7" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18">
-      <c r="A8" s="23" t="s">
-        <v>34</v>
+      <c r="A8" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1615,242 +1706,271 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16">
+    <row r="1" spans="1:18" ht="16">
       <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18">
       <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="17"/>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="16">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="str">
+        <f>TEXT(B7,"ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:R6" si="0">TEXT(C7,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="16">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>42998</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43003</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43010</v>
+      </c>
+      <c r="F7" s="14">
+        <v>43012</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43015</v>
+      </c>
+      <c r="H7" s="13">
+        <v>43017</v>
+      </c>
+      <c r="I7" s="13">
+        <v>43024</v>
+      </c>
+      <c r="J7" s="14">
+        <v>43026</v>
+      </c>
+      <c r="K7" s="13">
+        <v>43029</v>
+      </c>
+      <c r="L7" s="13">
+        <v>43031</v>
+      </c>
+      <c r="M7" s="13">
+        <v>43038</v>
+      </c>
+      <c r="N7" s="14">
+        <v>43040</v>
+      </c>
+      <c r="O7" s="13">
+        <v>43043</v>
+      </c>
+      <c r="P7" s="13">
+        <v>43045</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>43052</v>
+      </c>
+      <c r="R7" s="14">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="str">
-        <f>TEXT(C6,"ddd")</f>
-        <v>Wed</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:S5" si="0">TEXT(D6,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>Sat</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>Sat</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>Sat</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="16">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15">
-        <v>42998</v>
-      </c>
-      <c r="D6" s="13">
-        <v>43001</v>
-      </c>
-      <c r="E6" s="13">
-        <v>43003</v>
-      </c>
-      <c r="F6" s="13">
-        <v>43010</v>
-      </c>
-      <c r="G6" s="15">
-        <v>43012</v>
-      </c>
-      <c r="H6" s="13">
-        <v>43015</v>
-      </c>
-      <c r="I6" s="13">
-        <v>43017</v>
-      </c>
-      <c r="J6" s="13">
-        <v>43024</v>
-      </c>
-      <c r="K6" s="15">
-        <v>43026</v>
-      </c>
-      <c r="L6" s="13">
-        <v>43029</v>
-      </c>
-      <c r="M6" s="13">
-        <v>43031</v>
-      </c>
-      <c r="N6" s="13">
-        <v>43038</v>
-      </c>
-      <c r="O6" s="15">
-        <v>43040</v>
-      </c>
-      <c r="P6" s="13">
-        <v>43043</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>43045</v>
-      </c>
-      <c r="R6" s="13">
-        <v>43052</v>
-      </c>
-      <c r="S6" s="15">
-        <v>43055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="25" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>36</v>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1866,369 +1986,366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16">
+    <row r="1" spans="1:18" ht="16">
       <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="D4" s="18"/>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="17"/>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18">
       <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="16">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="16">
       <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B6" t="str">
+        <f>TEXT(B7,"ddd")</f>
+        <v>Wed</v>
+      </c>
       <c r="C6" t="str">
-        <f>TEXT(C7,"ddd")</f>
+        <f t="shared" ref="C6:R6" si="0">TEXT(C7,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6:S6" si="0">TEXT(D7,"ddd")</f>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="E6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="F6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="G6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="H6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="I6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="J6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="K6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="L6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="M6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="N6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>Sat</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="16">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="14">
         <v>42998</v>
       </c>
+      <c r="C7" s="13">
+        <v>43001</v>
+      </c>
       <c r="D7" s="13">
-        <v>43001</v>
+        <v>43003</v>
       </c>
       <c r="E7" s="13">
-        <v>43003</v>
-      </c>
-      <c r="F7" s="13">
         <v>43010</v>
       </c>
-      <c r="G7" s="15">
+      <c r="F7" s="14">
         <v>43012</v>
       </c>
+      <c r="G7" s="13">
+        <v>43015</v>
+      </c>
       <c r="H7" s="13">
-        <v>43015</v>
+        <v>43017</v>
       </c>
       <c r="I7" s="13">
-        <v>43017</v>
-      </c>
-      <c r="J7" s="13">
         <v>43024</v>
       </c>
-      <c r="K7" s="15">
+      <c r="J7" s="14">
         <v>43026</v>
       </c>
+      <c r="K7" s="13">
+        <v>43029</v>
+      </c>
       <c r="L7" s="13">
-        <v>43029</v>
+        <v>43031</v>
       </c>
       <c r="M7" s="13">
-        <v>43031</v>
-      </c>
-      <c r="N7" s="13">
         <v>43038</v>
       </c>
-      <c r="O7" s="15">
+      <c r="N7" s="14">
         <v>43040</v>
       </c>
+      <c r="O7" s="13">
+        <v>43043</v>
+      </c>
       <c r="P7" s="13">
-        <v>43043</v>
+        <v>43045</v>
       </c>
       <c r="Q7" s="13">
-        <v>43045</v>
-      </c>
-      <c r="R7" s="13">
         <v>43052</v>
       </c>
-      <c r="S7" s="15">
+      <c r="R7" s="14">
         <v>43055</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18" ht="16">
       <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="E8" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="D8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" ht="16">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="E9" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="B9" s="10"/>
+      <c r="D9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="B11" s="11"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="B12" s="11"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="B13" s="11"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="16" spans="1:19">
+        <v>18</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" s="10"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -1708,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2234,9 +2234,9 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Flow Diagram</t>
   </si>
   <si>
-    <t>Record Actual Hours</t>
-  </si>
-  <si>
     <t>Work Day Enumeration</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Sub Fuctional Component Order</t>
+  </si>
+  <si>
+    <t>All Due Endo of Day</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,8 +697,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,8 +818,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="413">
+  <cellStyles count="469">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -970,6 +1028,34 @@
     <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1176,6 +1262,34 @@
     <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1575,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1590,7 +1704,7 @@
       </c>
       <c r="E1" s="15"/>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -1598,11 +1712,11 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18">
@@ -1610,87 +1724,88 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43003</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43006</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43010</v>
+      </c>
+      <c r="E6" s="13">
+        <v>43017</v>
+      </c>
+      <c r="F6" s="13">
+        <v>43024</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43031</v>
+      </c>
+      <c r="H6" s="13">
+        <v>43038</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43045</v>
+      </c>
+      <c r="J6" s="13">
+        <v>43052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>43003</v>
-      </c>
-      <c r="C5" s="13">
-        <v>43006</v>
-      </c>
-      <c r="D5" s="13">
-        <v>43010</v>
-      </c>
-      <c r="E5" s="13">
-        <v>43017</v>
-      </c>
-      <c r="F5" s="13">
-        <v>43024</v>
-      </c>
-      <c r="G5" s="13">
-        <v>43031</v>
-      </c>
-      <c r="H5" s="13">
-        <v>43038</v>
-      </c>
-      <c r="I5" s="13">
-        <v>43045</v>
-      </c>
-      <c r="J5" s="13">
-        <v>43052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="18">
-      <c r="A7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>35</v>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="18">
       <c r="A8" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1824,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1731,7 +1846,7 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
@@ -1739,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" t="s">
@@ -1751,7 +1866,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" t="s">
@@ -1897,80 +2012,83 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="16">
       <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1988,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2010,7 +2128,7 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
@@ -2018,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" t="s">
@@ -2030,7 +2148,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" t="s">
@@ -2182,11 +2300,14 @@
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:18" ht="16">
       <c r="A9" s="3" t="s">
@@ -2194,16 +2315,19 @@
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="16">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2211,8 +2335,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="H11" s="25"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="16">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -2220,6 +2347,9 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
@@ -2229,6 +2359,9 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
@@ -2240,105 +2373,105 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="11"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="B19" s="11"/>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Standup" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Deliverables Tracking</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Hardware Development Process</t>
-  </si>
-  <si>
-    <t>Extend Product Definition with Implementations</t>
   </si>
   <si>
     <t xml:space="preserve">Make Updates to Product Defintion </t>
@@ -283,8 +280,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="469">
+  <cellStyleXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -817,11 +828,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="469">
+  <cellStyles count="483">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1056,6 +1069,13 @@
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1290,6 +1310,13 @@
     <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1689,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1704,7 +1731,7 @@
       </c>
       <c r="E1" s="15"/>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -1712,24 +1739,24 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
@@ -1755,7 +1782,7 @@
         <v>43031</v>
       </c>
       <c r="H6" s="13">
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="I6" s="13">
         <v>43045</v>
@@ -1766,46 +1793,56 @@
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="18">
       <c r="A8" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1861,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I8" sqref="I8:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1846,7 +1883,7 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
@@ -1854,29 +1891,29 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="C4" s="17"/>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2014,20 +2051,20 @@
     </row>
     <row r="8" spans="1:18" ht="16">
       <c r="A8" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="28" t="s">
-        <v>34</v>
+      <c r="H8" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2038,57 +2075,57 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="17"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2128,7 +2165,7 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
@@ -2136,29 +2173,29 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="C4" s="17"/>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18">
@@ -2296,11 +2333,11 @@
     </row>
     <row r="8" spans="1:18" ht="16">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2308,6 +2345,9 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="16">
       <c r="A9" s="3" t="s">
@@ -2315,7 +2355,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -2323,6 +2363,9 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="10"/>
@@ -2338,6 +2381,9 @@
       <c r="H11" s="25"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="16">
       <c r="A12" s="3" t="s">
@@ -2350,6 +2396,9 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
@@ -2362,14 +2411,21 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
@@ -2379,17 +2435,23 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="11"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2397,88 +2459,85 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B19" s="11"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
+    <row r="28" spans="1:13">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="29" spans="1:13">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="32" spans="1:13">
       <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Petros/Deliverables Tracking.xlsx
+++ b/Petros/Deliverables Tracking.xlsx
@@ -280,8 +280,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="483">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -834,7 +840,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="483">
+  <cellStyles count="489">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1076,6 +1082,9 @@
     <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1317,6 +1326,9 @@
     <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2144,7 +2156,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2348,6 +2360,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="16">
       <c r="A9" s="3" t="s">
@@ -2366,6 +2379,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="10"/>
@@ -2383,7 +2397,8 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="28"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:18" ht="16">
       <c r="A12" s="3" t="s">
@@ -2399,6 +2414,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
@@ -2414,6 +2430,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3" t="s">
@@ -2426,6 +2443,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
@@ -2438,8 +2456,9 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2450,8 +2469,9 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2462,8 +2482,9 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2474,69 +2495,70 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N19" s="25"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="B32" s="10"/>
     </row>
   </sheetData>
